--- a/natmiOut/OldD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.2553421369726</v>
+        <v>192.30027</v>
       </c>
       <c r="H2">
-        <v>44.2553421369726</v>
+        <v>576.90081</v>
       </c>
       <c r="I2">
-        <v>0.4289761991616279</v>
+        <v>0.7642743413703218</v>
       </c>
       <c r="J2">
-        <v>0.4289761991616279</v>
+        <v>0.7642743413703219</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.50041929467891</v>
+        <v>22.07422366666666</v>
       </c>
       <c r="N2">
-        <v>4.50041929467891</v>
+        <v>66.22267099999999</v>
       </c>
       <c r="O2">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="P2">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="Q2">
-        <v>199.1675956458481</v>
+        <v>4244.879171140389</v>
       </c>
       <c r="R2">
-        <v>199.1675956458481</v>
+        <v>38203.9125402635</v>
       </c>
       <c r="S2">
-        <v>0.2552195200092803</v>
+        <v>0.6672801199450479</v>
       </c>
       <c r="T2">
-        <v>0.2552195200092803</v>
+        <v>0.667280119945048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.2553421369726</v>
+        <v>192.30027</v>
       </c>
       <c r="H3">
-        <v>44.2553421369726</v>
+        <v>576.90081</v>
       </c>
       <c r="I3">
-        <v>0.4289761991616279</v>
+        <v>0.7642743413703218</v>
       </c>
       <c r="J3">
-        <v>0.4289761991616279</v>
+        <v>0.7642743413703219</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.35400322327336</v>
+        <v>1.456833333333333</v>
       </c>
       <c r="N3">
-        <v>1.35400322327336</v>
+        <v>4.3705</v>
       </c>
       <c r="O3">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721463</v>
       </c>
       <c r="P3">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721465</v>
       </c>
       <c r="Q3">
-        <v>59.92187590052625</v>
+        <v>280.149443345</v>
       </c>
       <c r="R3">
-        <v>59.92187590052625</v>
+        <v>2521.344990105</v>
       </c>
       <c r="S3">
-        <v>0.07678574597336502</v>
+        <v>0.04403851007791322</v>
       </c>
       <c r="T3">
-        <v>0.07678574597336502</v>
+        <v>0.04403851007791323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.2553421369726</v>
+        <v>192.30027</v>
       </c>
       <c r="H4">
-        <v>44.2553421369726</v>
+        <v>576.90081</v>
       </c>
       <c r="I4">
-        <v>0.4289761991616279</v>
+        <v>0.7642743413703218</v>
       </c>
       <c r="J4">
-        <v>0.4289761991616279</v>
+        <v>0.7642743413703219</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.70993918758974</v>
+        <v>1.751822333333333</v>
       </c>
       <c r="N4">
-        <v>1.70993918758974</v>
+        <v>5.255467</v>
       </c>
       <c r="O4">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239802</v>
       </c>
       <c r="P4">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239804</v>
       </c>
       <c r="Q4">
-        <v>75.67394378020091</v>
+        <v>336.87590769203</v>
       </c>
       <c r="R4">
-        <v>75.67394378020091</v>
+        <v>3031.88316922827</v>
       </c>
       <c r="S4">
-        <v>0.09697093317898252</v>
+        <v>0.0529557113473608</v>
       </c>
       <c r="T4">
-        <v>0.09697093317898252</v>
+        <v>0.05295571134736082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.7474794646707</v>
+        <v>53.08542</v>
       </c>
       <c r="H5">
-        <v>52.7474794646707</v>
+        <v>159.25626</v>
       </c>
       <c r="I5">
-        <v>0.5112922454893112</v>
+        <v>0.210981629962698</v>
       </c>
       <c r="J5">
-        <v>0.5112922454893112</v>
+        <v>0.210981629962698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.50041929467891</v>
+        <v>22.07422366666666</v>
       </c>
       <c r="N5">
-        <v>4.50041929467891</v>
+        <v>66.22267099999999</v>
       </c>
       <c r="O5">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="P5">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="Q5">
-        <v>237.3857743284836</v>
+        <v>1171.81943451894</v>
       </c>
       <c r="R5">
-        <v>237.3857743284836</v>
+        <v>10546.37491067046</v>
       </c>
       <c r="S5">
-        <v>0.3041934767786102</v>
+        <v>0.1842059058207939</v>
       </c>
       <c r="T5">
-        <v>0.3041934767786102</v>
+        <v>0.1842059058207939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.7474794646707</v>
+        <v>53.08542</v>
       </c>
       <c r="H6">
-        <v>52.7474794646707</v>
+        <v>159.25626</v>
       </c>
       <c r="I6">
-        <v>0.5112922454893112</v>
+        <v>0.210981629962698</v>
       </c>
       <c r="J6">
-        <v>0.5112922454893112</v>
+        <v>0.210981629962698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.35400322327336</v>
+        <v>1.456833333333333</v>
       </c>
       <c r="N6">
-        <v>1.35400322327336</v>
+        <v>4.3705</v>
       </c>
       <c r="O6">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721463</v>
       </c>
       <c r="P6">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721465</v>
       </c>
       <c r="Q6">
-        <v>71.42025721470949</v>
+        <v>77.33660936999999</v>
       </c>
       <c r="R6">
-        <v>71.42025721470949</v>
+        <v>696.0294843299999</v>
       </c>
       <c r="S6">
-        <v>0.09152012758987925</v>
+        <v>0.01215704379229554</v>
       </c>
       <c r="T6">
-        <v>0.09152012758987925</v>
+        <v>0.01215704379229554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.7474794646707</v>
+        <v>53.08542</v>
       </c>
       <c r="H7">
-        <v>52.7474794646707</v>
+        <v>159.25626</v>
       </c>
       <c r="I7">
-        <v>0.5112922454893112</v>
+        <v>0.210981629962698</v>
       </c>
       <c r="J7">
-        <v>0.5112922454893112</v>
+        <v>0.210981629962698</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.70993918758974</v>
+        <v>1.751822333333333</v>
       </c>
       <c r="N7">
-        <v>1.70993918758974</v>
+        <v>5.255467</v>
       </c>
       <c r="O7">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239802</v>
       </c>
       <c r="P7">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239804</v>
       </c>
       <c r="Q7">
-        <v>90.19498218322551</v>
+        <v>92.99622433038</v>
       </c>
       <c r="R7">
-        <v>90.19498218322551</v>
+        <v>836.9660189734201</v>
       </c>
       <c r="S7">
-        <v>0.1155786411208217</v>
+        <v>0.01461868034960853</v>
       </c>
       <c r="T7">
-        <v>0.1155786411208217</v>
+        <v>0.01461868034960853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.16220765513899</v>
+        <v>6.225884000000001</v>
       </c>
       <c r="H8">
-        <v>6.16220765513899</v>
+        <v>18.677652</v>
       </c>
       <c r="I8">
-        <v>0.05973155534906101</v>
+        <v>0.02474402866698016</v>
       </c>
       <c r="J8">
-        <v>0.05973155534906101</v>
+        <v>0.02474402866698016</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.50041929467891</v>
+        <v>22.07422366666666</v>
       </c>
       <c r="N8">
-        <v>4.50041929467891</v>
+        <v>66.22267099999999</v>
       </c>
       <c r="O8">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="P8">
-        <v>0.5949503037885786</v>
+        <v>0.8730897844203874</v>
       </c>
       <c r="Q8">
-        <v>27.73251822900559</v>
+        <v>137.4315559387213</v>
       </c>
       <c r="R8">
-        <v>27.73251822900559</v>
+        <v>1236.884003448492</v>
       </c>
       <c r="S8">
-        <v>0.03553730700068815</v>
+        <v>0.0216037586545456</v>
       </c>
       <c r="T8">
-        <v>0.03553730700068815</v>
+        <v>0.0216037586545456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.16220765513899</v>
+        <v>6.225884000000001</v>
       </c>
       <c r="H9">
-        <v>6.16220765513899</v>
+        <v>18.677652</v>
       </c>
       <c r="I9">
-        <v>0.05973155534906101</v>
+        <v>0.02474402866698016</v>
       </c>
       <c r="J9">
-        <v>0.05973155534906101</v>
+        <v>0.02474402866698016</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.35400322327336</v>
+        <v>1.456833333333333</v>
       </c>
       <c r="N9">
-        <v>1.35400322327336</v>
+        <v>4.3705</v>
       </c>
       <c r="O9">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721463</v>
       </c>
       <c r="P9">
-        <v>0.1789976836090946</v>
+        <v>0.05762133790721465</v>
       </c>
       <c r="Q9">
-        <v>8.343649027537966</v>
+        <v>9.070075340666667</v>
       </c>
       <c r="R9">
-        <v>8.343649027537966</v>
+        <v>81.630678066</v>
       </c>
       <c r="S9">
-        <v>0.01069181004585035</v>
+        <v>0.00142578403700587</v>
       </c>
       <c r="T9">
-        <v>0.01069181004585035</v>
+        <v>0.00142578403700587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.16220765513899</v>
+        <v>6.225884000000001</v>
       </c>
       <c r="H10">
-        <v>6.16220765513899</v>
+        <v>18.677652</v>
       </c>
       <c r="I10">
-        <v>0.05973155534906101</v>
+        <v>0.02474402866698016</v>
       </c>
       <c r="J10">
-        <v>0.05973155534906101</v>
+        <v>0.02474402866698016</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.70993918758974</v>
+        <v>1.751822333333333</v>
       </c>
       <c r="N10">
-        <v>1.70993918758974</v>
+        <v>5.255467</v>
       </c>
       <c r="O10">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239802</v>
       </c>
       <c r="P10">
-        <v>0.2260520126023267</v>
+        <v>0.06928887767239804</v>
       </c>
       <c r="Q10">
-        <v>10.53700035158764</v>
+        <v>10.90664263594267</v>
       </c>
       <c r="R10">
-        <v>10.53700035158764</v>
+        <v>98.15978372348401</v>
       </c>
       <c r="S10">
-        <v>0.01350243830252252</v>
+        <v>0.001714485975428699</v>
       </c>
       <c r="T10">
-        <v>0.01350243830252252</v>
+        <v>0.001714485975428699</v>
       </c>
     </row>
   </sheetData>
